--- a/DeseasonalizedWeekendsF1.xlsx
+++ b/DeseasonalizedWeekendsF1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\Documents\GitHub\earth-hour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7C8E8B-9EA9-487C-AAD5-2B2251A52EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF5EE57-D366-43A0-970B-34D154E3B62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1020,7 +1020,7 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>112297.7399134299</v>
+        <v>100096.68106065159</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>112055.402393988</v>
+        <v>99911.883819477691</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1051,7 +1051,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>109146.6010602887</v>
+        <v>97317.102458184672</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1059,7 +1059,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>95743.110858433516</v>
+        <v>85483.588882730415</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1067,7 +1067,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>108362.06615605</v>
+        <v>96485.354097437521</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1075,7 +1075,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>107343.9736137429</v>
+        <v>95641.426616671844</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1083,7 +1083,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>107657.69636066259</v>
+        <v>95893.626975853127</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1091,7 +1091,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>106508.1410709054</v>
+        <v>94902.195520765148</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1099,7 +1099,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>102359.658486637</v>
+        <v>91196.463147752263</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1107,7 +1107,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>103135.94863035341</v>
+        <v>91910.902266475023</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>106539.2939011798</v>
+        <v>94931.610303877751</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1123,7 +1123,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>105099.9354131967</v>
+        <v>93525.038117416334</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1131,7 +1131,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>101553.3664134111</v>
+        <v>90496.505628538755</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1139,7 +1139,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>102840.3100437398</v>
+        <v>91719.584248811298</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1147,7 +1147,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>102729.23330763369</v>
+        <v>91564.606394747709</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1155,7 +1155,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>104030.1450486041</v>
+        <v>92760.199934108387</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1163,7 +1163,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>103464.48410048459</v>
+        <v>92209.846359561008</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1171,7 +1171,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>105245.0642728349</v>
+        <v>93811.532211882863</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1179,7 +1179,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>105951.00568326389</v>
+        <v>94466.51122303275</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1187,7 +1187,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>107262.871094651</v>
+        <v>95521.060131488659</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1195,7 +1195,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>105455.3321532495</v>
+        <v>93997.577123910829</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1203,7 +1203,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>107224.2874087502</v>
+        <v>95508.336105622206</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1211,7 +1211,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>105239.3004238279</v>
+        <v>93750.080327692893</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1219,7 +1219,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>104290.72503692489</v>
+        <v>92821.170851587769</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1227,7 +1227,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>101229.735813166</v>
+        <v>90228.636921724057</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1235,7 +1235,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>105433.0174544044</v>
+        <v>93969.428104073886</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1243,7 +1243,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>103896.7452765709</v>
+        <v>92637.06928205963</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -1251,7 +1251,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>102226.7436549007</v>
+        <v>91117.665937390266</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1259,7 +1259,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>107124.5856863255</v>
+        <v>95481.008605460447</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1267,7 +1267,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>108182.47580442981</v>
+        <v>96424.230180480241</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1275,7 +1275,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>107936.11028723539</v>
+        <v>96176.678320369945</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1283,7 +1283,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>102051.460435835</v>
+        <v>91021.89783996511</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1291,7 +1291,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>105741.15676492421</v>
+        <v>94267.935415680142</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1299,7 +1299,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>106061.8142410669</v>
+        <v>94630.605567536564</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1307,7 +1307,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>107177.1313243406</v>
+        <v>95524.064020505626</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1315,7 +1315,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>104685.80123543659</v>
+        <v>93351.397313941474</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1323,7 +1323,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>105071.1177178098</v>
+        <v>93710.363092898522</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1331,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>106483.076032326</v>
+        <v>94948.522329192536</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1339,7 +1339,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>104243.0706701044</v>
+        <v>92948.351632242266</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1347,7 +1347,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>104304.09252499721</v>
+        <v>92974.214261391782</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1355,7 +1355,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>106356.44683534421</v>
+        <v>94856.241296303531</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1363,7 +1363,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>108569.78839787751</v>
+        <v>96787.151599920529</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1371,7 +1371,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>105247.2735070732</v>
+        <v>93782.282749458187</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1379,7 +1379,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>106522.7289666087</v>
+        <v>94899.603131429583</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1387,7 +1387,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>105820.22167702</v>
+        <v>94338.007673440312</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1395,7 +1395,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>108087.00044588139</v>
+        <v>96276.789301376179</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1403,7 +1403,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>106647.81281604541</v>
+        <v>95028.352939287302</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1411,7 +1411,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>112858.6255355537</v>
+        <v>100604.8821142089</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1419,7 +1419,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>107597.0712044113</v>
+        <v>95870.969672479318</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1427,7 +1427,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>107673.62612125911</v>
+        <v>95939.531055133615</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1435,7 +1435,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>106688.6307778028</v>
+        <v>95002.992396410526</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1443,7 +1443,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>105183.9795388066</v>
+        <v>93692.881182106416</v>
       </c>
     </row>
   </sheetData>
@@ -1455,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14D7329-2A9C-4A7F-801B-A87C2D95CEF9}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:B54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1471,7 +1471,7 @@
         <v>53</v>
       </c>
       <c r="B2">
-        <v>110348.4365322527</v>
+        <v>98291.198951586164</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1479,7 +1479,7 @@
         <v>54</v>
       </c>
       <c r="B3">
-        <v>103448.1530744932</v>
+        <v>92197.291355889931</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1487,7 +1487,7 @@
         <v>55</v>
       </c>
       <c r="B4">
-        <v>111044.74070187331</v>
+        <v>98877.567439328443</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1495,7 +1495,7 @@
         <v>56</v>
       </c>
       <c r="B5">
-        <v>110560.1388172178</v>
+        <v>98418.037382286362</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1503,7 +1503,7 @@
         <v>57</v>
       </c>
       <c r="B6">
-        <v>109800.4555298343</v>
+        <v>97830.815110749681</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1511,7 +1511,7 @@
         <v>58</v>
       </c>
       <c r="B7">
-        <v>109387.27018280749</v>
+        <v>97407.816135173722</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1519,7 +1519,7 @@
         <v>59</v>
       </c>
       <c r="B8">
-        <v>104772.9346792096</v>
+        <v>93364.342855353971</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1527,7 +1527,7 @@
         <v>60</v>
       </c>
       <c r="B9">
-        <v>110097.2641426747</v>
+        <v>98102.550438674618</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1535,7 +1535,7 @@
         <v>61</v>
       </c>
       <c r="B10">
-        <v>110217.3084802791</v>
+        <v>98140.199277587395</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1543,7 +1543,7 @@
         <v>62</v>
       </c>
       <c r="B11">
-        <v>107115.7286926674</v>
+        <v>95420.454725383679</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1551,7 +1551,7 @@
         <v>63</v>
       </c>
       <c r="B12">
-        <v>109583.4782677144</v>
+        <v>97570.738940305426</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1559,7 +1559,7 @@
         <v>64</v>
       </c>
       <c r="B13">
-        <v>108383.1024209219</v>
+        <v>96562.225290012982</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1567,7 +1567,7 @@
         <v>65</v>
       </c>
       <c r="B14">
-        <v>106226.5821657207</v>
+        <v>94593.115234453871</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1575,7 +1575,7 @@
         <v>66</v>
       </c>
       <c r="B15">
-        <v>106964.1639026077</v>
+        <v>95317.062324800499</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1583,7 +1583,7 @@
         <v>67</v>
       </c>
       <c r="B16">
-        <v>107735.3002971775</v>
+        <v>95999.632623950136</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1591,7 +1591,7 @@
         <v>68</v>
       </c>
       <c r="B17">
-        <v>108509.7318813998</v>
+        <v>96702.384580352984</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1599,7 +1599,7 @@
         <v>69</v>
       </c>
       <c r="B18">
-        <v>110487.0188426216</v>
+        <v>98412.33472430236</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1607,7 +1607,7 @@
         <v>70</v>
       </c>
       <c r="B19">
-        <v>110389.37152798859</v>
+        <v>98385.669340178065</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1615,7 +1615,7 @@
         <v>71</v>
       </c>
       <c r="B20">
-        <v>111034.9886755115</v>
+        <v>98915.271593207275</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1623,7 +1623,7 @@
         <v>72</v>
       </c>
       <c r="B21">
-        <v>107191.53288192079</v>
+        <v>95594.313735093849</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1631,7 +1631,7 @@
         <v>73</v>
       </c>
       <c r="B22">
-        <v>108239.815975303</v>
+        <v>96456.951258531757</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1639,7 +1639,7 @@
         <v>74</v>
       </c>
       <c r="B23">
-        <v>107625.2200187665</v>
+        <v>95884.982058449154</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1647,7 +1647,7 @@
         <v>75</v>
       </c>
       <c r="B24">
-        <v>110746.4933569593</v>
+        <v>98700.008135062249</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1655,7 +1655,7 @@
         <v>76</v>
       </c>
       <c r="B25">
-        <v>108068.4424164636</v>
+        <v>96334.781492184949</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1663,7 +1663,7 @@
         <v>77</v>
       </c>
       <c r="B26">
-        <v>104811.2688296275</v>
+        <v>93395.024347698942</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1671,7 +1671,7 @@
         <v>78</v>
       </c>
       <c r="B27">
-        <v>104271.82488506541</v>
+        <v>92960.770020531025</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1679,7 +1679,7 @@
         <v>79</v>
       </c>
       <c r="B28">
-        <v>108077.70885799971</v>
+        <v>96262.254259036883</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -1687,7 +1687,7 @@
         <v>80</v>
       </c>
       <c r="B29">
-        <v>106224.3132557667</v>
+        <v>94692.715074302265</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1695,7 +1695,7 @@
         <v>81</v>
       </c>
       <c r="B30">
-        <v>106617.10421018449</v>
+        <v>95046.155506495168</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1703,7 +1703,7 @@
         <v>82</v>
       </c>
       <c r="B31">
-        <v>108702.60506173081</v>
+        <v>96877.899797222912</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1711,7 +1711,7 @@
         <v>83</v>
       </c>
       <c r="B32">
-        <v>106444.772191296</v>
+        <v>94855.878871378518</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1719,7 +1719,7 @@
         <v>84</v>
       </c>
       <c r="B33">
-        <v>110217.0394672563</v>
+        <v>98211.353779090146</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1727,7 +1727,7 @@
         <v>85</v>
       </c>
       <c r="B34">
-        <v>110074.9690775935</v>
+        <v>98022.466215272885</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1735,7 +1735,7 @@
         <v>86</v>
       </c>
       <c r="B35">
-        <v>108284.9926863463</v>
+        <v>96486.639176321842</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1743,7 +1743,7 @@
         <v>87</v>
       </c>
       <c r="B36">
-        <v>105257.40901810239</v>
+        <v>93838.018629119993</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1751,7 +1751,7 @@
         <v>88</v>
       </c>
       <c r="B37">
-        <v>103771.19205050509</v>
+        <v>92489.474978622282</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1759,7 +1759,7 @@
         <v>89</v>
       </c>
       <c r="B38">
-        <v>105504.5309894528</v>
+        <v>94111.239459093704</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1767,7 +1767,7 @@
         <v>90</v>
       </c>
       <c r="B39">
-        <v>104928.4949042005</v>
+        <v>93545.044163766812</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1775,7 +1775,7 @@
         <v>91</v>
       </c>
       <c r="B40">
-        <v>109797.1085018411</v>
+        <v>97834.178503314892</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1783,7 +1783,7 @@
         <v>92</v>
       </c>
       <c r="B41">
-        <v>108471.1916991826</v>
+        <v>96659.206694869339</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1791,7 +1791,7 @@
         <v>93</v>
       </c>
       <c r="B42">
-        <v>103538.64435543711</v>
+        <v>92301.832248767605</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1799,7 +1799,7 @@
         <v>94</v>
       </c>
       <c r="B43">
-        <v>108831.11434513651</v>
+        <v>97013.753774784214</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1807,7 +1807,7 @@
         <v>95</v>
       </c>
       <c r="B44">
-        <v>106820.72567688129</v>
+        <v>95232.208396418122</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1815,7 +1815,7 @@
         <v>96</v>
       </c>
       <c r="B45">
-        <v>107720.4813764085</v>
+        <v>95901.6751010726</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1823,7 +1823,7 @@
         <v>97</v>
       </c>
       <c r="B46">
-        <v>106991.0835692273</v>
+        <v>95295.878019796015</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1831,7 +1831,7 @@
         <v>98</v>
       </c>
       <c r="B47">
-        <v>107764.3932504658</v>
+        <v>96059.321435459526</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1839,7 +1839,7 @@
         <v>99</v>
       </c>
       <c r="B48">
-        <v>109635.389054163</v>
+        <v>97701.285175922952</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1847,7 +1847,7 @@
         <v>100</v>
       </c>
       <c r="B49">
-        <v>109536.73189100339</v>
+        <v>97488.367107846614</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1855,7 +1855,7 @@
         <v>101</v>
       </c>
       <c r="B50">
-        <v>110997.8049399142</v>
+        <v>98885.507985680379</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1863,7 +1863,7 @@
         <v>102</v>
       </c>
       <c r="B51">
-        <v>108695.89484148451</v>
+        <v>96694.604936387914</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1871,7 +1871,7 @@
         <v>103</v>
       </c>
       <c r="B52">
-        <v>109204.53504241259</v>
+        <v>97211.530635632866</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1879,7 +1879,7 @@
         <v>104</v>
       </c>
       <c r="B53">
-        <v>110703.39566916881</v>
+        <v>98553.43162788701</v>
       </c>
     </row>
   </sheetData>
@@ -1892,7 +1892,7 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1907,7 +1907,7 @@
         <v>105</v>
       </c>
       <c r="B2">
-        <v>115705.2045593306</v>
+        <v>103090.6431897546</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1915,7 +1915,7 @@
         <v>106</v>
       </c>
       <c r="B3">
-        <v>116201.9872185092</v>
+        <v>103556.0439163946</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1923,7 +1923,7 @@
         <v>107</v>
       </c>
       <c r="B4">
-        <v>113709.85063572769</v>
+        <v>101313.8339140415</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1931,7 +1931,7 @@
         <v>108</v>
       </c>
       <c r="B5">
-        <v>112769.69977918531</v>
+        <v>100467.3258277526</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1939,7 +1939,7 @@
         <v>109</v>
       </c>
       <c r="B6">
-        <v>112154.81999495</v>
+        <v>99853.844095377441</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1947,7 +1947,7 @@
         <v>110</v>
       </c>
       <c r="B7">
-        <v>114152.81069016919</v>
+        <v>101646.26005408559</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1955,7 +1955,7 @@
         <v>111</v>
       </c>
       <c r="B8">
-        <v>113647.699418998</v>
+        <v>101126.0597228002</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1963,7 +1963,7 @@
         <v>112</v>
       </c>
       <c r="B9">
-        <v>113761.8499174958</v>
+        <v>101296.1267975485</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1971,7 +1971,7 @@
         <v>113</v>
       </c>
       <c r="B10">
-        <v>109730.0540232818</v>
+        <v>97686.332836891597</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1979,7 +1979,7 @@
         <v>114</v>
       </c>
       <c r="B11">
-        <v>111879.21923394639</v>
+        <v>99619.251918308524</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1987,7 +1987,7 @@
         <v>115</v>
       </c>
       <c r="B12">
-        <v>109650.7213513262</v>
+        <v>97678.768734898942</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1995,7 +1995,7 @@
         <v>116</v>
       </c>
       <c r="B13">
-        <v>111656.554466192</v>
+        <v>99342.065044042771</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2003,7 +2003,7 @@
         <v>117</v>
       </c>
       <c r="B14">
-        <v>110874.28665437319</v>
+        <v>98844.789483404515</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2011,7 +2011,7 @@
         <v>118</v>
       </c>
       <c r="B15">
-        <v>110443.5828510643</v>
+        <v>98329.015623950647</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2019,7 +2019,7 @@
         <v>119</v>
       </c>
       <c r="B16">
-        <v>113221.3268175682</v>
+        <v>100894.2263802544</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2027,7 +2027,7 @@
         <v>120</v>
       </c>
       <c r="B17">
-        <v>112862.102221979</v>
+        <v>100566.4166936431</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2035,7 +2035,7 @@
         <v>121</v>
       </c>
       <c r="B18">
-        <v>110968.94809878869</v>
+        <v>99011.845166389743</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2043,7 +2043,7 @@
         <v>122</v>
       </c>
       <c r="B19">
-        <v>111164.76905610941</v>
+        <v>99083.054999483924</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2051,7 +2051,7 @@
         <v>123</v>
       </c>
       <c r="B20">
-        <v>112046.11510011931</v>
+        <v>99879.671944857822</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2059,7 +2059,7 @@
         <v>124</v>
       </c>
       <c r="B21">
-        <v>108477.9531958938</v>
+        <v>96648.308881693927</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -2067,7 +2067,7 @@
         <v>125</v>
       </c>
       <c r="B22">
-        <v>113063.7436051783</v>
+        <v>100720.0237335251</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2075,7 +2075,7 @@
         <v>126</v>
       </c>
       <c r="B23">
-        <v>108960.8431012058</v>
+        <v>97061.949301113302</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2083,7 +2083,7 @@
         <v>127</v>
       </c>
       <c r="B24">
-        <v>105799.9539801287</v>
+        <v>94309.84200591821</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2091,7 +2091,7 @@
         <v>128</v>
       </c>
       <c r="B25">
-        <v>109080.4812676695</v>
+        <v>97167.784827734547</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -2099,7 +2099,7 @@
         <v>129</v>
       </c>
       <c r="B26">
-        <v>106033.1174811106</v>
+        <v>94463.200992264217</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2107,7 +2107,7 @@
         <v>130</v>
       </c>
       <c r="B27">
-        <v>108949.90087216441</v>
+        <v>97023.588088611737</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -2115,7 +2115,7 @@
         <v>131</v>
       </c>
       <c r="B28">
-        <v>108779.9530475629</v>
+        <v>96916.100975041729</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -2123,7 +2123,7 @@
         <v>132</v>
       </c>
       <c r="B29">
-        <v>110211.7399029463</v>
+        <v>98202.475132694686</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -2131,7 +2131,7 @@
         <v>133</v>
       </c>
       <c r="B30">
-        <v>108636.6691604169</v>
+        <v>96841.828716488584</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -2139,7 +2139,7 @@
         <v>134</v>
       </c>
       <c r="B31">
-        <v>110319.8509331072</v>
+        <v>98177.980186389919</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -2147,7 +2147,7 @@
         <v>135</v>
       </c>
       <c r="B32">
-        <v>111455.2186615057</v>
+        <v>99294.497872336418</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -2155,7 +2155,7 @@
         <v>136</v>
       </c>
       <c r="B33">
-        <v>108191.89313705479</v>
+        <v>96364.345131856142</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -2163,7 +2163,7 @@
         <v>137</v>
       </c>
       <c r="B34">
-        <v>111685.2983748087</v>
+        <v>99448.357201818988</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -2171,7 +2171,7 @@
         <v>138</v>
       </c>
       <c r="B35">
-        <v>112741.4153363783</v>
+        <v>100472.1201096509</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -2179,7 +2179,7 @@
         <v>139</v>
       </c>
       <c r="B36">
-        <v>110849.69826770569</v>
+        <v>98780.589285649912</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -2187,7 +2187,7 @@
         <v>140</v>
       </c>
       <c r="B37">
-        <v>111294.21771498609</v>
+        <v>99084.802663939889</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -2195,7 +2195,7 @@
         <v>141</v>
       </c>
       <c r="B38">
-        <v>111394.82038422579</v>
+        <v>99268.692821258286</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -2203,7 +2203,7 @@
         <v>142</v>
       </c>
       <c r="B39">
-        <v>112446.2557584684</v>
+        <v>100147.4088557762</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -2211,7 +2211,7 @@
         <v>143</v>
       </c>
       <c r="B40">
-        <v>109584.1196271073</v>
+        <v>97532.441058244774</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -2219,7 +2219,7 @@
         <v>144</v>
       </c>
       <c r="B41">
-        <v>108544.31416335089</v>
+        <v>96660.649467234442</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -2227,7 +2227,7 @@
         <v>145</v>
       </c>
       <c r="B42">
-        <v>109522.4625356732</v>
+        <v>97611.508843528994</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -2235,7 +2235,7 @@
         <v>146</v>
       </c>
       <c r="B43">
-        <v>110880.3654468052</v>
+        <v>98845.018631380997</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -2243,7 +2243,7 @@
         <v>147</v>
       </c>
       <c r="B44">
-        <v>103775.63209921859</v>
+        <v>92324.873236365267</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -2251,7 +2251,7 @@
         <v>148</v>
       </c>
       <c r="B45">
-        <v>110845.7108344726</v>
+        <v>98829.65117440543</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -2259,7 +2259,7 @@
         <v>149</v>
       </c>
       <c r="B46">
-        <v>111201.8804311897</v>
+        <v>99079.492563813299</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -2267,7 +2267,7 @@
         <v>150</v>
       </c>
       <c r="B47">
-        <v>112584.1427895798</v>
+        <v>100310.9803868345</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -2275,7 +2275,7 @@
         <v>151</v>
       </c>
       <c r="B48">
-        <v>108673.29494817081</v>
+        <v>96762.267151966691</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -2283,7 +2283,7 @@
         <v>152</v>
       </c>
       <c r="B49">
-        <v>111848.7162830161</v>
+        <v>99554.647131351623</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -2291,7 +2291,7 @@
         <v>153</v>
       </c>
       <c r="B50">
-        <v>111607.02031151969</v>
+        <v>99450.428967368221</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -2299,7 +2299,7 @@
         <v>154</v>
       </c>
       <c r="B51">
-        <v>106630.83163790571</v>
+        <v>94949.198926417172</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2307,7 +2307,7 @@
         <v>155</v>
       </c>
       <c r="B52">
-        <v>109242.5403692977</v>
+        <v>97236.91708756068</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -2315,7 +2315,7 @@
         <v>156</v>
       </c>
       <c r="B53">
-        <v>110867.5663513773</v>
+        <v>98713.802947092438</v>
       </c>
     </row>
   </sheetData>
@@ -2327,8 +2327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F565B212-A568-4F9B-B951-FB958E0A2638}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2343,7 +2343,7 @@
         <v>209</v>
       </c>
       <c r="B2">
-        <v>115647.62843878919</v>
+        <v>102980.05415421139</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2351,7 +2351,7 @@
         <v>157</v>
       </c>
       <c r="B3">
-        <v>122767.2933540745</v>
+        <v>109324.5098033937</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2359,7 +2359,7 @@
         <v>158</v>
       </c>
       <c r="B4">
-        <v>122629.47072976</v>
+        <v>109178.4982699219</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2367,7 +2367,7 @@
         <v>159</v>
       </c>
       <c r="B5">
-        <v>123950.4307436301</v>
+        <v>110315.62578459681</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2375,7 +2375,7 @@
         <v>160</v>
       </c>
       <c r="B6">
-        <v>123288.4411568636</v>
+        <v>109735.90510678189</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2383,7 +2383,7 @@
         <v>161</v>
       </c>
       <c r="B7">
-        <v>120899.4430644161</v>
+        <v>107694.63546003131</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2391,7 +2391,7 @@
         <v>162</v>
       </c>
       <c r="B8">
-        <v>120412.6511797081</v>
+        <v>107144.2611757745</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2399,7 +2399,7 @@
         <v>163</v>
       </c>
       <c r="B9">
-        <v>122040.5881567115</v>
+        <v>108635.14918009609</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2407,7 +2407,7 @@
         <v>164</v>
       </c>
       <c r="B10">
-        <v>120258.620549955</v>
+        <v>107142.4709592256</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2415,7 +2415,7 @@
         <v>165</v>
       </c>
       <c r="B11">
-        <v>118662.4606520728</v>
+        <v>105658.1312621414</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2423,7 +2423,7 @@
         <v>166</v>
       </c>
       <c r="B12">
-        <v>120278.6090721495</v>
+        <v>107020.0684772903</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2431,7 +2431,7 @@
         <v>167</v>
       </c>
       <c r="B13">
-        <v>121076.269098898</v>
+        <v>107810.93463523639</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2439,7 +2439,7 @@
         <v>168</v>
       </c>
       <c r="B14">
-        <v>121332.73875080921</v>
+        <v>107868.5542834291</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2447,7 +2447,7 @@
         <v>169</v>
       </c>
       <c r="B15">
-        <v>117199.7896116958</v>
+        <v>104386.10720543809</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2455,7 +2455,7 @@
         <v>170</v>
       </c>
       <c r="B16">
-        <v>116028.9383730665</v>
+        <v>103317.9175969121</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2463,7 +2463,7 @@
         <v>171</v>
       </c>
       <c r="B17">
-        <v>119598.34371058051</v>
+        <v>106458.0575827358</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2471,7 +2471,7 @@
         <v>172</v>
       </c>
       <c r="B18">
-        <v>118530.0919592752</v>
+        <v>105645.5289954342</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2479,7 +2479,7 @@
         <v>173</v>
       </c>
       <c r="B19">
-        <v>117643.5568840335</v>
+        <v>104700.4953750205</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2487,7 +2487,7 @@
         <v>174</v>
       </c>
       <c r="B20">
-        <v>116213.5357599171</v>
+        <v>103526.24711783099</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2495,7 +2495,7 @@
         <v>175</v>
       </c>
       <c r="B21">
-        <v>118834.2236924718</v>
+        <v>105750.4269245282</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -2503,7 +2503,7 @@
         <v>176</v>
       </c>
       <c r="B22">
-        <v>118865.7610561748</v>
+        <v>105845.78820231539</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2511,7 +2511,7 @@
         <v>177</v>
       </c>
       <c r="B23">
-        <v>119137.55096277549</v>
+        <v>106056.7767398282</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2519,7 +2519,7 @@
         <v>178</v>
       </c>
       <c r="B24">
-        <v>115884.58382100789</v>
+        <v>103241.75157697521</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2527,7 +2527,7 @@
         <v>179</v>
       </c>
       <c r="B25">
-        <v>113484.5221075247</v>
+        <v>101199.6114559604</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -2535,7 +2535,7 @@
         <v>180</v>
       </c>
       <c r="B26">
-        <v>114810.2681191993</v>
+        <v>102175.5597200816</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2543,7 +2543,7 @@
         <v>181</v>
       </c>
       <c r="B27">
-        <v>114441.4789939566</v>
+        <v>101941.18113011699</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -2551,7 +2551,7 @@
         <v>182</v>
       </c>
       <c r="B28">
-        <v>117942.9128410572</v>
+        <v>105035.3027373535</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -2559,7 +2559,7 @@
         <v>183</v>
       </c>
       <c r="B29">
-        <v>116607.02805493389</v>
+        <v>103854.796489049</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -2567,7 +2567,7 @@
         <v>184</v>
       </c>
       <c r="B30">
-        <v>119909.07918033459</v>
+        <v>106786.15650392461</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -2575,7 +2575,7 @@
         <v>185</v>
       </c>
       <c r="B31">
-        <v>115242.3158970051</v>
+        <v>102654.9761634696</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -2583,7 +2583,7 @@
         <v>186</v>
       </c>
       <c r="B32">
-        <v>116386.55230230511</v>
+        <v>103589.3085810636</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -2591,7 +2591,7 @@
         <v>187</v>
       </c>
       <c r="B33">
-        <v>115293.471812752</v>
+        <v>102750.3706308507</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -2599,7 +2599,7 @@
         <v>188</v>
       </c>
       <c r="B34">
-        <v>118040.5432011887</v>
+        <v>105169.4965536971</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -2607,7 +2607,7 @@
         <v>189</v>
       </c>
       <c r="B35">
-        <v>116847.354096462</v>
+        <v>104105.36895058891</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -2615,7 +2615,7 @@
         <v>190</v>
       </c>
       <c r="B36">
-        <v>114575.6704618527</v>
+        <v>102019.8157089161</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -2623,7 +2623,7 @@
         <v>191</v>
       </c>
       <c r="B37">
-        <v>115472.5395832792</v>
+        <v>102848.34561248359</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -2631,7 +2631,7 @@
         <v>192</v>
       </c>
       <c r="B38">
-        <v>114912.1172628903</v>
+        <v>102354.0486881581</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -2639,7 +2639,7 @@
         <v>193</v>
       </c>
       <c r="B39">
-        <v>115562.37478250969</v>
+        <v>102955.2672398624</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -2647,7 +2647,7 @@
         <v>194</v>
       </c>
       <c r="B40">
-        <v>114985.77328177421</v>
+        <v>102472.80908761561</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -2655,7 +2655,7 @@
         <v>195</v>
       </c>
       <c r="B41">
-        <v>115432.997075387</v>
+        <v>102733.3815854947</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -2663,7 +2663,7 @@
         <v>196</v>
       </c>
       <c r="B42">
-        <v>115864.005916166</v>
+        <v>103243.3423475264</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -2671,7 +2671,7 @@
         <v>197</v>
       </c>
       <c r="B43">
-        <v>117350.4472302189</v>
+        <v>104573.6372248726</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -2679,7 +2679,7 @@
         <v>198</v>
       </c>
       <c r="B44">
-        <v>113554.2149196041</v>
+        <v>101050.8475269831</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -2687,7 +2687,7 @@
         <v>199</v>
       </c>
       <c r="B45">
-        <v>117312.7397860597</v>
+        <v>104473.8083764914</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -2695,7 +2695,7 @@
         <v>200</v>
       </c>
       <c r="B46">
-        <v>115017.9128117447</v>
+        <v>102478.69349832799</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -2703,7 +2703,7 @@
         <v>201</v>
       </c>
       <c r="B47">
-        <v>116491.27622124901</v>
+        <v>103731.2126738613</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -2711,7 +2711,7 @@
         <v>202</v>
       </c>
       <c r="B48">
-        <v>117570.1148035431</v>
+        <v>104759.39623973941</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -2719,7 +2719,7 @@
         <v>203</v>
       </c>
       <c r="B49">
-        <v>119827.50445388</v>
+        <v>106699.4766903838</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -2727,7 +2727,7 @@
         <v>204</v>
       </c>
       <c r="B50">
-        <v>119003.2162124168</v>
+        <v>106020.86367833801</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -2735,7 +2735,7 @@
         <v>205</v>
       </c>
       <c r="B51">
-        <v>116481.0419083335</v>
+        <v>103753.4430230209</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2743,7 +2743,7 @@
         <v>206</v>
       </c>
       <c r="B52">
-        <v>116960.9985410532</v>
+        <v>104118.9049932831</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -2751,7 +2751,7 @@
         <v>207</v>
       </c>
       <c r="B53">
-        <v>113767.9622083979</v>
+        <v>101195.1142753654</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -2759,7 +2759,7 @@
         <v>208</v>
       </c>
       <c r="B54">
-        <v>115714.4733997734</v>
+        <v>102998.2445889988</v>
       </c>
     </row>
   </sheetData>

--- a/DeseasonalizedWeekendsF1.xlsx
+++ b/DeseasonalizedWeekendsF1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\Documents\GitHub\earth-hour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF5EE57-D366-43A0-970B-34D154E3B62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A4C046-E8BC-47F2-8AF4-E9CA4A7E4B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="210">
   <si>
     <t>07Jan-08Jan</t>
   </si>
@@ -2327,7 +2327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F565B212-A568-4F9B-B951-FB958E0A2638}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2769,12 +2769,436 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF704FA-7A57-4B3E-98F8-096A7444149C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>110768.79309203901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>110180.35862964259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>101037.35365170331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>102569.8714283099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>103652.5880219853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>105489.6587806874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>106550.2612862548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>106770.0676989444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>99242.402498299518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>102989.79566850699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>105266.8702056771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>104277.88173043181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>104507.391589005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>103803.36416431741</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>107893.21880058511</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>107728.7567571343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>105305.68813733679</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>106528.2878560813</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>109206.86660674569</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>105244.1554141605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>106359.6940331059</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>103005.6602175969</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>107532.9148656321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>105510.38955361499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>105215.4267140382</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>104423.1932100478</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>105101.22683635241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>103729.8596960111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>103859.0053991366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>104595.9628707378</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>106574.5571561523</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>105928.4054998764</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>103480.7593371425</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>105079.972774037</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>105374.3734722899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>102849.0898070931</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>106943.42025951399</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>103575.89899272579</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>103298.5258705218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>110182.02171206981</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>109447.7106363498</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>104720.05875072371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>105939.3168219752</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>107924.8897817336</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>105906.7896748292</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>106847.73781658171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>104565.6777242027</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>105411.2916825182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>108067.3287371935</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>106068.00830065169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>104430.11714667649</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>103861.7363291918</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>